--- a/wmt1.xlsx
+++ b/wmt1.xlsx
@@ -17882,7 +17882,7 @@
         <v>146.630005</v>
       </c>
       <c r="C1260">
-        <v>8156500</v>
+        <v>8159400</v>
       </c>
       <c r="D1260">
         <v>146.75239898</v>
